--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="98">
   <si>
     <t>id|任务id</t>
   </si>
@@ -191,6 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,6 +207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,6 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,43 +291,208 @@
   <si>
     <t>完成bbsc大步骤</t>
   </si>
+  <si>
+    <t>渔场2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场5</t>
+  </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d_target_yu</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_challenge_children_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_children_task</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d_challenge_children_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔场5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d_target_yu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uyu_3d_target_yu</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uyu_3d_target_yu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>fish_game_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_fish_id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,161 +502,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,198 +581,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -723,254 +626,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -979,10 +640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -991,81 +652,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1323,19 +957,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
@@ -1354,7 +988,7 @@
     <col min="18" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:12">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>20000</v>
       </c>
@@ -1430,7 +1064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>20001</v>
       </c>
@@ -1468,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>20002</v>
       </c>
@@ -1506,7 +1140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>20003</v>
       </c>
@@ -1544,7 +1178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>20004</v>
       </c>
@@ -1582,7 +1216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>20005</v>
       </c>
@@ -1620,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>20006</v>
       </c>
@@ -1655,7 +1289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>20007</v>
       </c>
@@ -1690,7 +1324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>20100</v>
       </c>
@@ -1728,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>20101</v>
       </c>
@@ -1766,7 +1400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>20102</v>
       </c>
@@ -1804,7 +1438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>20103</v>
       </c>
@@ -1842,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>20104</v>
       </c>
@@ -1880,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>20105</v>
       </c>
@@ -1918,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>20106</v>
       </c>
@@ -1956,7 +1590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>20107</v>
       </c>
@@ -1994,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>20200</v>
       </c>
@@ -2032,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>20201</v>
       </c>
@@ -2070,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>20202</v>
       </c>
@@ -2108,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20203</v>
       </c>
@@ -2146,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20204</v>
       </c>
@@ -2184,7 +1818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>20205</v>
       </c>
@@ -2222,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>20206</v>
       </c>
@@ -2260,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>20207</v>
       </c>
@@ -2270,8 +1904,8 @@
       <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>13</v>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>14</v>
@@ -2298,622 +1932,1763 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="7"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="7"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="7"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="7"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="7"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="7"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="C59" s="7"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="7"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="7"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6">
+    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>20300</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="14">
+        <v>20300</v>
+      </c>
+      <c r="G26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J26" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K26" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>20301</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14">
+        <v>20301</v>
+      </c>
+      <c r="G27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J27" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K27" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>20302</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="14">
+        <v>20302</v>
+      </c>
+      <c r="G28" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J28" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K28" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>20303</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="14">
+        <v>20303</v>
+      </c>
+      <c r="G29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J29" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K29" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>20304</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="14">
+        <v>20304</v>
+      </c>
+      <c r="G30" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J30" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K30" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>20305</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="14">
+        <v>20305</v>
+      </c>
+      <c r="G31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J31" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K31" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>20306</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="14">
+        <v>20306</v>
+      </c>
+      <c r="G32" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J32" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K32" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>20307</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="14">
+        <v>20307</v>
+      </c>
+      <c r="G33" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J33" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K33" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>20308</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="14">
+        <v>20308</v>
+      </c>
+      <c r="G34" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J34" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K34" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>20400</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="14">
+        <v>20400</v>
+      </c>
+      <c r="G35" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J35" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K35" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>20401</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14">
+        <v>20401</v>
+      </c>
+      <c r="G36" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J36" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K36" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>20402</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="14">
+        <v>20402</v>
+      </c>
+      <c r="G37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J37" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K37" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>20403</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="14">
+        <v>20403</v>
+      </c>
+      <c r="G38" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J38" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K38" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>20404</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="14">
+        <v>20404</v>
+      </c>
+      <c r="G39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J39" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K39" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>20405</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="14">
+        <v>20405</v>
+      </c>
+      <c r="G40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J40" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K40" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>20406</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="14">
+        <v>20406</v>
+      </c>
+      <c r="G41" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J41" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K41" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>20407</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="14">
+        <v>20407</v>
+      </c>
+      <c r="G42" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J42" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K42" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>20408</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="14">
+        <v>20408</v>
+      </c>
+      <c r="G43" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J43" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K43" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>20500</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="14">
+        <v>20500</v>
+      </c>
+      <c r="G44" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J44" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K44" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>20501</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="14">
+        <v>20501</v>
+      </c>
+      <c r="G45" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J45" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K45" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>20502</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="14">
+        <v>20502</v>
+      </c>
+      <c r="G46" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1</v>
+      </c>
+      <c r="I46" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J46" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K46" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>20503</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="14">
+        <v>20503</v>
+      </c>
+      <c r="G47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J47" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K47" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>20504</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="14">
+        <v>20504</v>
+      </c>
+      <c r="G48" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J48" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K48" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>20505</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="14">
+        <v>20505</v>
+      </c>
+      <c r="G49" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>1</v>
+      </c>
+      <c r="I49" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J49" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K49" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>20506</v>
+      </c>
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="14">
+        <v>20506</v>
+      </c>
+      <c r="G50" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J50" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K50" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>20507</v>
+      </c>
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="14">
+        <v>20507</v>
+      </c>
+      <c r="G51" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J51" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K51" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>20508</v>
+      </c>
+      <c r="B52" s="14">
+        <v>1</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="14">
+        <v>20508</v>
+      </c>
+      <c r="G52" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1</v>
+      </c>
+      <c r="I52" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J52" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K52" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>20600</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="14">
+        <v>20600</v>
+      </c>
+      <c r="G53" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J53" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K53" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>20601</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="14">
+        <v>20601</v>
+      </c>
+      <c r="G54" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1</v>
+      </c>
+      <c r="I54" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J54" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K54" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>20602</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="14">
+        <v>20602</v>
+      </c>
+      <c r="G55" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>1</v>
+      </c>
+      <c r="I55" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J55" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K55" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>20603</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="14">
+        <v>20603</v>
+      </c>
+      <c r="G56" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+      <c r="I56" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J56" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K56" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>20604</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="14">
+        <v>20604</v>
+      </c>
+      <c r="G57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>1</v>
+      </c>
+      <c r="I57" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J57" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K57" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>20605</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="14">
+        <v>20605</v>
+      </c>
+      <c r="G58" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>1</v>
+      </c>
+      <c r="I58" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J58" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K58" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>20606</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="14">
+        <v>20606</v>
+      </c>
+      <c r="G59" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J59" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K59" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>20607</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="14">
+        <v>20607</v>
+      </c>
+      <c r="G60" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1</v>
+      </c>
+      <c r="I60" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J60" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K60" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>20608</v>
+      </c>
+      <c r="B61" s="14">
+        <v>1</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="14">
+        <v>20608</v>
+      </c>
+      <c r="G61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>1</v>
+      </c>
+      <c r="I61" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J61" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K61" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C62" s="7"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C63" s="7"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C64" s="7"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="3:6">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="7"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="3:6">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="7"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="7"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="3:6">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="7"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="3:6">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="3:6">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="7"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="3:6">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="7"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="3:6">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="7"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="3:6">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="7"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="7"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="7"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="7"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="7"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="3:6">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="7"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="3:6">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="7"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="7"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="7"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="7"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="7"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="7"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="7"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="3:6">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="7"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="3:6">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="7"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="3:6">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="7"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="3:6">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="7"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C91" s="7"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C92" s="7"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C93" s="7"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="3:6">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C94" s="7"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="3:6">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="7"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="7"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="7"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="7"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="3:6">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="7"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="3:6">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="7"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="3:6">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="7"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="3:6">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="7"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="3:6">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="7"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="3:6">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="7"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="3:6">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="7"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="3:6">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="7"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="3:6">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="7"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="3:6">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="7"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="3:6">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="7"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="3:6">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="7"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="3:6">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="7"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="3:6">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="7"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="3:6">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="7"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="3:6">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="7"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="3:6">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="7"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="3:6">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="7"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="3:6">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="7"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="3:6">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="7"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="3:6">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="7"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="3:6">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="7"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="3:6">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="7"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="3:6">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="7"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="3:6">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="7"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="3:6">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="7"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="3:6">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="7"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="3:6">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="7"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="3:6">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C127" s="7"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="3:6">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="7"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="3:6">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="7"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="3:6">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="7"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="3:6">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="7"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="7"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="3:6">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="7"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="7"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="3:6">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="7"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="7"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="7"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="3:6">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="7"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="3:6">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="7"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="3:6">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="7"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="3:6">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="7"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="3:6">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="7"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="3:6">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="7"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="7"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="3:6">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="7"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="3:6">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="7"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="3:6">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="7"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="3:6">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="7"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="3:6">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="7"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="7"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="7"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="3:6">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="7"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="3:6">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="7"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="3:6">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="7"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="3:6">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="7"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="3:6">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="7"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="3:6">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="7"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="3:6">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="7"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="3:6">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="7"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="3:6">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="7"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="7"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="7"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="7"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="7"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="7"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="7"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="7"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="7"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="7"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="7"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="7"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="7"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="7"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="7"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="7"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="7"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="3:6">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="7"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="3:6">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="7"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="3:6">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="7"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="3:6">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="7"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="3:6">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="7"/>
       <c r="F181" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26:D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="5" width="32.75" style="1" customWidth="1"/>
@@ -2923,7 +3698,7 @@
     <col min="9" max="10" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2951,7 +3726,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2975,7 +3750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2999,7 +3774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3023,7 +3798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3047,7 +3822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3072,7 +3847,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3096,7 +3871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3120,7 +3895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3145,7 +3920,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3169,7 +3944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3194,7 +3969,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3218,7 +3993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3242,7 +4017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3266,7 +4041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3290,7 +4065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3315,7 +4090,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3339,7 +4114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3364,7 +4139,7 @@
       </c>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3388,7 +4163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3412,7 +4187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3437,7 +4212,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3461,7 +4236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3485,7 +4260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3509,7 +4284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3533,58 +4308,756 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>20300</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="16">
+        <v>25</v>
+      </c>
+      <c r="E26" s="14">
+        <v>20300</v>
+      </c>
+      <c r="F26" s="14">
+        <v>3</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="E27" s="6"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>20301</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="16">
+        <v>26</v>
+      </c>
+      <c r="E27" s="14">
+        <v>20301</v>
+      </c>
+      <c r="F27" s="16">
+        <v>3</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>20302</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="16">
+        <v>27</v>
+      </c>
+      <c r="E28" s="14">
+        <v>20302</v>
+      </c>
+      <c r="F28" s="16">
+        <v>3</v>
+      </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="6"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>20303</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="16">
+        <v>28</v>
+      </c>
+      <c r="E29" s="14">
+        <v>20303</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="E30" s="6"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>20304</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29</v>
+      </c>
+      <c r="E30" s="14">
+        <v>20304</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>20305</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="16">
+        <v>30</v>
+      </c>
+      <c r="E31" s="14">
+        <v>20305</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>20306</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="16">
+        <v>31</v>
+      </c>
+      <c r="E32" s="14">
+        <v>20306</v>
+      </c>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>20307</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="16">
+        <v>32</v>
+      </c>
+      <c r="E33" s="14">
+        <v>20307</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>20308</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="16">
+        <v>33</v>
+      </c>
+      <c r="E34" s="14">
+        <v>20308</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>20400</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="16">
+        <v>34</v>
+      </c>
+      <c r="E35" s="14">
+        <v>20400</v>
+      </c>
+      <c r="F35" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>20401</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="16">
+        <v>35</v>
+      </c>
+      <c r="E36" s="14">
+        <v>20401</v>
+      </c>
+      <c r="F36" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14">
+        <v>20402</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="16">
+        <v>36</v>
+      </c>
+      <c r="E37" s="14">
+        <v>20402</v>
+      </c>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>20403</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="16">
+        <v>37</v>
+      </c>
+      <c r="E38" s="14">
+        <v>20403</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>20404</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="16">
+        <v>38</v>
+      </c>
+      <c r="E39" s="14">
+        <v>20404</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>20405</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="16">
+        <v>39</v>
+      </c>
+      <c r="E40" s="14">
+        <v>20405</v>
+      </c>
+      <c r="F40" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>20406</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="16">
+        <v>40</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20406</v>
+      </c>
+      <c r="F41" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14">
+        <v>20407</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="16">
+        <v>41</v>
+      </c>
+      <c r="E42" s="14">
+        <v>20407</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14">
+        <v>20408</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="16">
+        <v>42</v>
+      </c>
+      <c r="E43" s="14">
+        <v>20408</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>20500</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="16">
+        <v>43</v>
+      </c>
+      <c r="E44" s="14">
+        <v>20500</v>
+      </c>
+      <c r="F44" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>20501</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="16">
+        <v>44</v>
+      </c>
+      <c r="E45" s="14">
+        <v>20501</v>
+      </c>
+      <c r="F45" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>20502</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="16">
+        <v>45</v>
+      </c>
+      <c r="E46" s="14">
+        <v>20502</v>
+      </c>
+      <c r="F46" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14">
+        <v>20503</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="16">
+        <v>46</v>
+      </c>
+      <c r="E47" s="14">
+        <v>20503</v>
+      </c>
+      <c r="F47" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>20504</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="16">
+        <v>47</v>
+      </c>
+      <c r="E48" s="14">
+        <v>20504</v>
+      </c>
+      <c r="F48" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14">
+        <v>20505</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="16">
+        <v>48</v>
+      </c>
+      <c r="E49" s="14">
+        <v>20505</v>
+      </c>
+      <c r="F49" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14">
+        <v>20506</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="16">
+        <v>49</v>
+      </c>
+      <c r="E50" s="14">
+        <v>20506</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14">
+        <v>20507</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="16">
+        <v>50</v>
+      </c>
+      <c r="E51" s="14">
+        <v>20507</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14">
+        <v>20508</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="16">
+        <v>51</v>
+      </c>
+      <c r="E52" s="14">
+        <v>20508</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14">
+        <v>20600</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="16">
+        <v>52</v>
+      </c>
+      <c r="E53" s="14">
+        <v>20600</v>
+      </c>
+      <c r="F53" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14">
+        <v>20601</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="16">
+        <v>53</v>
+      </c>
+      <c r="E54" s="14">
+        <v>20601</v>
+      </c>
+      <c r="F54" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="14">
+        <v>20602</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="16">
+        <v>54</v>
+      </c>
+      <c r="E55" s="14">
+        <v>20602</v>
+      </c>
+      <c r="F55" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14">
+        <v>20603</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="16">
+        <v>55</v>
+      </c>
+      <c r="E56" s="14">
+        <v>20603</v>
+      </c>
+      <c r="F56" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14">
+        <v>20604</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="16">
+        <v>56</v>
+      </c>
+      <c r="E57" s="14">
+        <v>20604</v>
+      </c>
+      <c r="F57" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14">
+        <v>20605</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="16">
+        <v>57</v>
+      </c>
+      <c r="E58" s="14">
+        <v>20605</v>
+      </c>
+      <c r="F58" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>58</v>
+      </c>
+      <c r="B59" s="14">
+        <v>20606</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="16">
+        <v>58</v>
+      </c>
+      <c r="E59" s="14">
+        <v>20606</v>
+      </c>
+      <c r="F59" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14">
+        <v>20607</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="16">
+        <v>59</v>
+      </c>
+      <c r="E60" s="14">
+        <v>20607</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14">
+        <v>20608</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="16">
+        <v>60</v>
+      </c>
+      <c r="E61" s="14">
+        <v>20608</v>
+      </c>
+      <c r="F61" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:9">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -3605,7 +5078,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3619,7 +5092,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3633,7 +5106,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3647,7 +5120,7 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3661,7 +5134,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3675,7 +5148,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3689,7 +5162,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3703,7 +5176,7 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3717,7 +5190,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3731,7 +5204,7 @@
         <v>20100</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3745,7 +5218,7 @@
         <v>20101</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3759,7 +5232,7 @@
         <v>20102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3773,7 +5246,7 @@
         <v>20103</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3787,7 +5260,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3801,7 +5274,7 @@
         <v>20105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3815,7 +5288,7 @@
         <v>20106</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3829,7 +5302,7 @@
         <v>20107</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3843,7 +5316,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3857,7 +5330,7 @@
         <v>20201</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3871,7 +5344,7 @@
         <v>20202</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3885,7 +5358,7 @@
         <v>20203</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3899,7 +5372,7 @@
         <v>20204</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3913,7 +5386,7 @@
         <v>20205</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3927,7 +5400,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3941,22 +5414,526 @@
         <v>20207</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="14">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="14">
+        <v>20301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="14">
+        <v>20302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="14">
+        <v>20303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>29</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="14">
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16">
+        <v>30</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="14">
+        <v>20305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="14">
+        <v>20306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="14">
+        <v>20307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16">
+        <v>33</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="14">
+        <v>20308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>34</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="14">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16">
+        <v>35</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="14">
+        <v>20401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="14">
+        <v>20402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16">
+        <v>37</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="14">
+        <v>20403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="14">
+        <v>20404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="14">
+        <v>20405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="14">
+        <v>20406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <v>41</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="14">
+        <v>20407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16">
+        <v>42</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="14">
+        <v>20408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16">
+        <v>43</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="14">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16">
+        <v>44</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="14">
+        <v>20501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16">
+        <v>45</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="14">
+        <v>20502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16">
+        <v>46</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="14">
+        <v>20503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16">
+        <v>47</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="14">
+        <v>20504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <v>48</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="14">
+        <v>20505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <v>49</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="14">
+        <v>20506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16">
+        <v>50</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="14">
+        <v>20507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16">
+        <v>51</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="14">
+        <v>20508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16">
+        <v>52</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="14">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16">
+        <v>53</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="14">
+        <v>20601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16">
+        <v>54</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="14">
+        <v>20602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16">
+        <v>55</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="14">
+        <v>20603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16">
+        <v>56</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="14">
+        <v>20604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16">
+        <v>57</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="14">
+        <v>20605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16">
+        <v>58</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="14">
+        <v>20606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16">
+        <v>59</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="14">
+        <v>20607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16">
+        <v>60</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="14">
+        <v>20608</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
@@ -3966,7 +5943,7 @@
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66.95" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -3986,7 +5963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4003,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4020,7 +5997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4037,7 +6014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4054,7 +6031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4071,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4088,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4105,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4122,7 +6099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4139,7 +6116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4156,7 +6133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4173,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4190,7 +6167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4207,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4224,7 +6201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4241,7 +6218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4258,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4275,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4292,7 +6269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4309,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4326,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4343,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4360,7 +6337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4377,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4394,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4411,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4428,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4445,7 +6422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4462,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4479,7 +6456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4496,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4512,8 +6489,11 @@
       <c r="E32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4530,7 +6510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4547,7 +6527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4564,7 +6544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4581,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4598,7 +6578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4616,7 +6596,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4634,7 +6614,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4652,7 +6632,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4670,7 +6650,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4688,7 +6668,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4706,7 +6686,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4724,7 +6704,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4742,7 +6722,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4760,7 +6740,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4778,7 +6758,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -4796,7 +6776,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4814,7 +6794,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -4832,7 +6812,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -4850,7 +6830,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -4868,7 +6848,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -4886,7 +6866,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -4904,7 +6884,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4922,7 +6902,7 @@
       </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -4940,7 +6920,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -4958,7 +6938,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -4976,7 +6956,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -4994,7 +6974,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -5012,7 +6992,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -5030,7 +7010,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -5048,7 +7028,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -5066,7 +7046,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -5084,7 +7064,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -5102,7 +7082,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -5120,7 +7100,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -5138,7 +7118,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -5156,7 +7136,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -5174,7 +7154,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -5192,7 +7172,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -5210,7 +7190,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -5228,7 +7208,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -5246,148 +7226,1895 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="6"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>73</v>
+      </c>
+      <c r="B74" s="14">
+        <v>20300</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="16">
+        <v>2</v>
+      </c>
+      <c r="E74" s="16">
+        <v>2</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="6"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14">
+        <v>20300</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="16">
+        <v>11</v>
+      </c>
+      <c r="E75" s="16">
+        <v>2</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="6"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14">
+        <v>20300</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="16">
+        <v>1</v>
+      </c>
+      <c r="E76" s="16">
+        <v>3</v>
+      </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="6"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="14">
+        <v>20301</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="16">
+        <v>2</v>
+      </c>
+      <c r="E77" s="16">
+        <v>2</v>
+      </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="6"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14">
+        <v>20301</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="16">
+        <v>12</v>
+      </c>
+      <c r="E78" s="16">
+        <v>2</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="6"/>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14">
+        <v>20301</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="16">
+        <v>1</v>
+      </c>
+      <c r="E79" s="16">
+        <v>3</v>
+      </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="6"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
+        <v>79</v>
+      </c>
+      <c r="B80" s="14">
+        <v>20302</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="16">
+        <v>2</v>
+      </c>
+      <c r="E80" s="16">
+        <v>2</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="6"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
+        <v>80</v>
+      </c>
+      <c r="B81" s="14">
+        <v>20302</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="16">
+        <v>13</v>
+      </c>
+      <c r="E81" s="16">
+        <v>2</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="6"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>81</v>
+      </c>
+      <c r="B82" s="14">
+        <v>20302</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="16">
+        <v>1</v>
+      </c>
+      <c r="E82" s="16">
+        <v>3</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="6"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>82</v>
+      </c>
+      <c r="B83" s="14">
+        <v>20303</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="16">
+        <v>2</v>
+      </c>
+      <c r="E83" s="16">
+        <v>2</v>
+      </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="6"/>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>83</v>
+      </c>
+      <c r="B84" s="14">
+        <v>20303</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="16">
+        <v>14</v>
+      </c>
+      <c r="E84" s="16">
+        <v>2</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="6"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>84</v>
+      </c>
+      <c r="B85" s="14">
+        <v>20303</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="16">
+        <v>1</v>
+      </c>
+      <c r="E85" s="16">
+        <v>3</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="7:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>85</v>
+      </c>
+      <c r="B86" s="16">
+        <v>20304</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="16">
+        <v>2</v>
+      </c>
+      <c r="E86" s="16">
+        <v>2</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="7:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="16">
+        <v>20304</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="16">
+        <v>15</v>
+      </c>
+      <c r="E87" s="16">
+        <v>2</v>
+      </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="7:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="16">
+        <v>20304</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="16">
+        <v>1</v>
+      </c>
+      <c r="E88" s="16">
+        <v>3</v>
+      </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="7:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="16">
+        <v>20305</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="16">
+        <v>2</v>
+      </c>
+      <c r="E89" s="16">
+        <v>2</v>
+      </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="7:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="16">
+        <v>20305</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="16">
+        <v>16</v>
+      </c>
+      <c r="E90" s="16">
+        <v>2</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="7:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="16">
+        <v>20305</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="16">
+        <v>1</v>
+      </c>
+      <c r="E91" s="16">
+        <v>3</v>
+      </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="7:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="16">
+        <v>20306</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="16">
+        <v>2</v>
+      </c>
+      <c r="E92" s="16">
+        <v>2</v>
+      </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="7:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="16">
+        <v>20306</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="16">
+        <v>17</v>
+      </c>
+      <c r="E93" s="16">
+        <v>2</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="7:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="16">
+        <v>20306</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="16">
+        <v>1</v>
+      </c>
+      <c r="E94" s="16">
+        <v>3</v>
+      </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="7:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="16">
+        <v>20307</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="16">
+        <v>2</v>
+      </c>
+      <c r="E95" s="16">
+        <v>2</v>
+      </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="7:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="14">
+        <v>95</v>
+      </c>
+      <c r="B96" s="16">
+        <v>20307</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="16">
+        <v>18</v>
+      </c>
+      <c r="E96" s="16">
+        <v>2</v>
+      </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="7:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="16">
+        <v>20307</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="16">
+        <v>1</v>
+      </c>
+      <c r="E97" s="16">
+        <v>3</v>
+      </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="7:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
+        <v>97</v>
+      </c>
+      <c r="B98" s="16">
+        <v>20308</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="16">
+        <v>2</v>
+      </c>
+      <c r="E98" s="16">
+        <v>2</v>
+      </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="7:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
+        <v>98</v>
+      </c>
+      <c r="B99" s="16">
+        <v>20308</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="16">
+        <v>20</v>
+      </c>
+      <c r="E99" s="16">
+        <v>2</v>
+      </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="7:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
+        <v>99</v>
+      </c>
+      <c r="B100" s="16">
+        <v>20308</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="16">
+        <v>1</v>
+      </c>
+      <c r="E100" s="16">
+        <v>3</v>
+      </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="7:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
+        <v>100</v>
+      </c>
+      <c r="B101" s="16">
+        <v>20400</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="16">
+        <v>3</v>
+      </c>
+      <c r="E101" s="16">
+        <v>2</v>
+      </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="7:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
+        <v>101</v>
+      </c>
+      <c r="B102" s="16">
+        <v>20400</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="16">
+        <v>11</v>
+      </c>
+      <c r="E102" s="16">
+        <v>2</v>
+      </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="7:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
+        <v>102</v>
+      </c>
+      <c r="B103" s="16">
+        <v>20400</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="16">
+        <v>1</v>
+      </c>
+      <c r="E103" s="16">
+        <v>3</v>
+      </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="7:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="14">
+        <v>103</v>
+      </c>
+      <c r="B104" s="16">
+        <v>20401</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="16">
+        <v>3</v>
+      </c>
+      <c r="E104" s="16">
+        <v>2</v>
+      </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="7:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="14">
+        <v>104</v>
+      </c>
+      <c r="B105" s="16">
+        <v>20401</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="16">
+        <v>12</v>
+      </c>
+      <c r="E105" s="16">
+        <v>2</v>
+      </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="7:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="14">
+        <v>105</v>
+      </c>
+      <c r="B106" s="16">
+        <v>20401</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="16">
+        <v>1</v>
+      </c>
+      <c r="E106" s="16">
+        <v>3</v>
+      </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="7:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="14">
+        <v>106</v>
+      </c>
+      <c r="B107" s="16">
+        <v>20402</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="16">
+        <v>3</v>
+      </c>
+      <c r="E107" s="16">
+        <v>2</v>
+      </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="7:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
+        <v>107</v>
+      </c>
+      <c r="B108" s="16">
+        <v>20402</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="16">
+        <v>13</v>
+      </c>
+      <c r="E108" s="16">
+        <v>2</v>
+      </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="7:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
+        <v>108</v>
+      </c>
+      <c r="B109" s="16">
+        <v>20402</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="16">
+        <v>1</v>
+      </c>
+      <c r="E109" s="16">
+        <v>3</v>
+      </c>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="7:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="14">
+        <v>109</v>
+      </c>
+      <c r="B110" s="16">
+        <v>20403</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="16">
+        <v>3</v>
+      </c>
+      <c r="E110" s="16">
+        <v>2</v>
+      </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="7:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
+        <v>110</v>
+      </c>
+      <c r="B111" s="16">
+        <v>20403</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="16">
+        <v>14</v>
+      </c>
+      <c r="E111" s="16">
+        <v>2</v>
+      </c>
       <c r="G111" s="1"/>
     </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
+        <v>111</v>
+      </c>
+      <c r="B112" s="16">
+        <v>20403</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="16">
+        <v>1</v>
+      </c>
+      <c r="E112" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="14">
+        <v>112</v>
+      </c>
+      <c r="B113" s="16">
+        <v>20404</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="16">
+        <v>3</v>
+      </c>
+      <c r="E113" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="14">
+        <v>113</v>
+      </c>
+      <c r="B114" s="16">
+        <v>20404</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="16">
+        <v>15</v>
+      </c>
+      <c r="E114" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="14">
+        <v>114</v>
+      </c>
+      <c r="B115" s="16">
+        <v>20404</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115" s="16">
+        <v>1</v>
+      </c>
+      <c r="E115" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="14">
+        <v>115</v>
+      </c>
+      <c r="B116" s="16">
+        <v>20405</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="16">
+        <v>3</v>
+      </c>
+      <c r="E116" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="14">
+        <v>116</v>
+      </c>
+      <c r="B117" s="16">
+        <v>20405</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="16">
+        <v>16</v>
+      </c>
+      <c r="E117" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="14">
+        <v>117</v>
+      </c>
+      <c r="B118" s="16">
+        <v>20405</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="16">
+        <v>1</v>
+      </c>
+      <c r="E118" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="14">
+        <v>118</v>
+      </c>
+      <c r="B119" s="16">
+        <v>20406</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="16">
+        <v>3</v>
+      </c>
+      <c r="E119" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="14">
+        <v>119</v>
+      </c>
+      <c r="B120" s="16">
+        <v>20406</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="16">
+        <v>17</v>
+      </c>
+      <c r="E120" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="14">
+        <v>120</v>
+      </c>
+      <c r="B121" s="16">
+        <v>20406</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="16">
+        <v>1</v>
+      </c>
+      <c r="E121" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
+        <v>121</v>
+      </c>
+      <c r="B122" s="16">
+        <v>20407</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="16">
+        <v>3</v>
+      </c>
+      <c r="E122" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="14">
+        <v>122</v>
+      </c>
+      <c r="B123" s="16">
+        <v>20407</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="16">
+        <v>18</v>
+      </c>
+      <c r="E123" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="14">
+        <v>123</v>
+      </c>
+      <c r="B124" s="16">
+        <v>20407</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" s="16">
+        <v>1</v>
+      </c>
+      <c r="E124" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
+        <v>124</v>
+      </c>
+      <c r="B125" s="16">
+        <v>20408</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="16">
+        <v>3</v>
+      </c>
+      <c r="E125" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="14">
+        <v>125</v>
+      </c>
+      <c r="B126" s="16">
+        <v>20408</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D126" s="16">
+        <v>20</v>
+      </c>
+      <c r="E126" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="14">
+        <v>126</v>
+      </c>
+      <c r="B127" s="16">
+        <v>20408</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="16">
+        <v>1</v>
+      </c>
+      <c r="E127" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="14">
+        <v>127</v>
+      </c>
+      <c r="B128" s="16">
+        <v>20500</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="16">
+        <v>4</v>
+      </c>
+      <c r="E128" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="14">
+        <v>128</v>
+      </c>
+      <c r="B129" s="16">
+        <v>20500</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="16">
+        <v>11</v>
+      </c>
+      <c r="E129" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="14">
+        <v>129</v>
+      </c>
+      <c r="B130" s="16">
+        <v>20500</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" s="16">
+        <v>1</v>
+      </c>
+      <c r="E130" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="14">
+        <v>130</v>
+      </c>
+      <c r="B131" s="16">
+        <v>20501</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D131" s="16">
+        <v>4</v>
+      </c>
+      <c r="E131" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="14">
+        <v>131</v>
+      </c>
+      <c r="B132" s="16">
+        <v>20501</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D132" s="16">
+        <v>12</v>
+      </c>
+      <c r="E132" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="14">
+        <v>132</v>
+      </c>
+      <c r="B133" s="16">
+        <v>20501</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" s="16">
+        <v>1</v>
+      </c>
+      <c r="E133" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="14">
+        <v>133</v>
+      </c>
+      <c r="B134" s="16">
+        <v>20502</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="16">
+        <v>4</v>
+      </c>
+      <c r="E134" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="14">
+        <v>134</v>
+      </c>
+      <c r="B135" s="16">
+        <v>20502</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="16">
+        <v>13</v>
+      </c>
+      <c r="E135" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="14">
+        <v>135</v>
+      </c>
+      <c r="B136" s="16">
+        <v>20502</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="16">
+        <v>1</v>
+      </c>
+      <c r="E136" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="14">
+        <v>136</v>
+      </c>
+      <c r="B137" s="16">
+        <v>20503</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="16">
+        <v>4</v>
+      </c>
+      <c r="E137" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="14">
+        <v>137</v>
+      </c>
+      <c r="B138" s="16">
+        <v>20503</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="16">
+        <v>14</v>
+      </c>
+      <c r="E138" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="14">
+        <v>138</v>
+      </c>
+      <c r="B139" s="16">
+        <v>20503</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D139" s="16">
+        <v>1</v>
+      </c>
+      <c r="E139" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="14">
+        <v>139</v>
+      </c>
+      <c r="B140" s="16">
+        <v>20504</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D140" s="16">
+        <v>4</v>
+      </c>
+      <c r="E140" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="14">
+        <v>140</v>
+      </c>
+      <c r="B141" s="16">
+        <v>20504</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="16">
+        <v>15</v>
+      </c>
+      <c r="E141" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="14">
+        <v>141</v>
+      </c>
+      <c r="B142" s="16">
+        <v>20504</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142" s="16">
+        <v>1</v>
+      </c>
+      <c r="E142" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="14">
+        <v>142</v>
+      </c>
+      <c r="B143" s="16">
+        <v>20505</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D143" s="16">
+        <v>4</v>
+      </c>
+      <c r="E143" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="14">
+        <v>143</v>
+      </c>
+      <c r="B144" s="16">
+        <v>20505</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="16">
+        <v>16</v>
+      </c>
+      <c r="E144" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="14">
+        <v>144</v>
+      </c>
+      <c r="B145" s="16">
+        <v>20505</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="16">
+        <v>1</v>
+      </c>
+      <c r="E145" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="14">
+        <v>145</v>
+      </c>
+      <c r="B146" s="16">
+        <v>20506</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D146" s="16">
+        <v>4</v>
+      </c>
+      <c r="E146" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="14">
+        <v>146</v>
+      </c>
+      <c r="B147" s="16">
+        <v>20506</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="16">
+        <v>17</v>
+      </c>
+      <c r="E147" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="14">
+        <v>147</v>
+      </c>
+      <c r="B148" s="16">
+        <v>20506</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="16">
+        <v>1</v>
+      </c>
+      <c r="E148" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="14">
+        <v>148</v>
+      </c>
+      <c r="B149" s="16">
+        <v>20507</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D149" s="16">
+        <v>4</v>
+      </c>
+      <c r="E149" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="14">
+        <v>149</v>
+      </c>
+      <c r="B150" s="16">
+        <v>20507</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D150" s="16">
+        <v>18</v>
+      </c>
+      <c r="E150" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="14">
+        <v>150</v>
+      </c>
+      <c r="B151" s="16">
+        <v>20507</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="16">
+        <v>1</v>
+      </c>
+      <c r="E151" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="14">
+        <v>151</v>
+      </c>
+      <c r="B152" s="16">
+        <v>20508</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="16">
+        <v>4</v>
+      </c>
+      <c r="E152" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="14">
+        <v>152</v>
+      </c>
+      <c r="B153" s="16">
+        <v>20508</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="16">
+        <v>20</v>
+      </c>
+      <c r="E153" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>153</v>
+      </c>
+      <c r="B154" s="16">
+        <v>20508</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="16">
+        <v>1</v>
+      </c>
+      <c r="E154" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>154</v>
+      </c>
+      <c r="B155" s="16">
+        <v>20600</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="16">
+        <v>5</v>
+      </c>
+      <c r="E155" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>155</v>
+      </c>
+      <c r="B156" s="16">
+        <v>20600</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="16">
+        <v>11</v>
+      </c>
+      <c r="E156" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="14">
+        <v>156</v>
+      </c>
+      <c r="B157" s="16">
+        <v>20600</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" s="16">
+        <v>1</v>
+      </c>
+      <c r="E157" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="14">
+        <v>157</v>
+      </c>
+      <c r="B158" s="16">
+        <v>20601</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="16">
+        <v>5</v>
+      </c>
+      <c r="E158" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="14">
+        <v>158</v>
+      </c>
+      <c r="B159" s="16">
+        <v>20601</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="16">
+        <v>12</v>
+      </c>
+      <c r="E159" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="14">
+        <v>159</v>
+      </c>
+      <c r="B160" s="16">
+        <v>20601</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D160" s="16">
+        <v>1</v>
+      </c>
+      <c r="E160" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="14">
+        <v>160</v>
+      </c>
+      <c r="B161" s="16">
+        <v>20602</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161" s="16">
+        <v>5</v>
+      </c>
+      <c r="E161" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="14">
+        <v>161</v>
+      </c>
+      <c r="B162" s="16">
+        <v>20602</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="16">
+        <v>13</v>
+      </c>
+      <c r="E162" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="14">
+        <v>162</v>
+      </c>
+      <c r="B163" s="16">
+        <v>20602</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D163" s="16">
+        <v>1</v>
+      </c>
+      <c r="E163" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="14">
+        <v>163</v>
+      </c>
+      <c r="B164" s="16">
+        <v>20603</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="16">
+        <v>5</v>
+      </c>
+      <c r="E164" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="14">
+        <v>164</v>
+      </c>
+      <c r="B165" s="16">
+        <v>20603</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="16">
+        <v>14</v>
+      </c>
+      <c r="E165" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="14">
+        <v>165</v>
+      </c>
+      <c r="B166" s="16">
+        <v>20603</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" s="16">
+        <v>1</v>
+      </c>
+      <c r="E166" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="14">
+        <v>166</v>
+      </c>
+      <c r="B167" s="16">
+        <v>20604</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="16">
+        <v>5</v>
+      </c>
+      <c r="E167" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="14">
+        <v>167</v>
+      </c>
+      <c r="B168" s="16">
+        <v>20604</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D168" s="16">
+        <v>15</v>
+      </c>
+      <c r="E168" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="14">
+        <v>168</v>
+      </c>
+      <c r="B169" s="16">
+        <v>20604</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D169" s="16">
+        <v>1</v>
+      </c>
+      <c r="E169" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="14">
+        <v>169</v>
+      </c>
+      <c r="B170" s="16">
+        <v>20605</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D170" s="16">
+        <v>5</v>
+      </c>
+      <c r="E170" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="14">
+        <v>170</v>
+      </c>
+      <c r="B171" s="16">
+        <v>20605</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D171" s="16">
+        <v>16</v>
+      </c>
+      <c r="E171" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="14">
+        <v>171</v>
+      </c>
+      <c r="B172" s="16">
+        <v>20605</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D172" s="16">
+        <v>1</v>
+      </c>
+      <c r="E172" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="14">
+        <v>172</v>
+      </c>
+      <c r="B173" s="16">
+        <v>20606</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="16">
+        <v>5</v>
+      </c>
+      <c r="E173" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="14">
+        <v>173</v>
+      </c>
+      <c r="B174" s="16">
+        <v>20606</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D174" s="16">
+        <v>17</v>
+      </c>
+      <c r="E174" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="14">
+        <v>174</v>
+      </c>
+      <c r="B175" s="16">
+        <v>20606</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175" s="16">
+        <v>1</v>
+      </c>
+      <c r="E175" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="14">
+        <v>175</v>
+      </c>
+      <c r="B176" s="16">
+        <v>20607</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="16">
+        <v>5</v>
+      </c>
+      <c r="E176" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="14">
+        <v>176</v>
+      </c>
+      <c r="B177" s="16">
+        <v>20607</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D177" s="16">
+        <v>18</v>
+      </c>
+      <c r="E177" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="14">
+        <v>177</v>
+      </c>
+      <c r="B178" s="16">
+        <v>20607</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D178" s="16">
+        <v>1</v>
+      </c>
+      <c r="E178" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="14">
+        <v>178</v>
+      </c>
+      <c r="B179" s="16">
+        <v>20608</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="16">
+        <v>5</v>
+      </c>
+      <c r="E179" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="14">
+        <v>179</v>
+      </c>
+      <c r="B180" s="16">
+        <v>20608</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="16">
+        <v>20</v>
+      </c>
+      <c r="E180" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="14">
+        <v>180</v>
+      </c>
+      <c r="B181" s="16">
+        <v>20608</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D181" s="16">
+        <v>1</v>
+      </c>
+      <c r="E181" s="16">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="6" customWidth="1"/>
@@ -5402,7 +9129,7 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -5431,17 +9158,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="8:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H3" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="8:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H4" s="6" t="s">
         <v>54</v>
       </c>
@@ -5449,189 +9176,188 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="9:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="4:4">
+    <row r="63" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D63" s="8"/>
     </row>
-    <row r="64" ht="16.5" spans="4:4">
+    <row r="64" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D64" s="8"/>
     </row>
-    <row r="65" ht="16.5" spans="4:4">
+    <row r="65" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D65" s="8"/>
     </row>
-    <row r="66" ht="16.5" spans="4:4">
+    <row r="66" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D66" s="8"/>
     </row>
-    <row r="67" ht="16.5" spans="4:4">
+    <row r="67" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D67" s="8"/>
     </row>
-    <row r="68" ht="16.5" spans="4:4">
+    <row r="68" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D68" s="8"/>
     </row>
-    <row r="69" ht="16.5" spans="4:4">
+    <row r="69" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D69" s="8"/>
     </row>
-    <row r="70" ht="16.5" spans="4:4">
+    <row r="70" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D70" s="8"/>
     </row>
-    <row r="71" ht="16.5" spans="4:4">
+    <row r="71" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D71" s="8"/>
     </row>
-    <row r="72" ht="16.5" spans="4:4">
+    <row r="72" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="16.5" spans="4:4">
+    <row r="73" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D73" s="8"/>
     </row>
-    <row r="74" ht="16.5" spans="4:4">
+    <row r="74" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D74" s="8"/>
     </row>
-    <row r="75" ht="16.5" spans="4:4">
+    <row r="75" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D75" s="8"/>
     </row>
-    <row r="76" ht="16.5" spans="4:4">
+    <row r="76" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D76" s="8"/>
     </row>
-    <row r="77" ht="16.5" spans="4:4">
+    <row r="77" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D77" s="8"/>
     </row>
-    <row r="78" ht="16.5" spans="4:4">
+    <row r="78" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D78" s="8"/>
     </row>
-    <row r="79" ht="16.5" spans="4:4">
+    <row r="79" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D79" s="8"/>
     </row>
-    <row r="80" ht="16.5" spans="4:4">
+    <row r="80" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="16.5" spans="4:4">
+    <row r="81" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D81" s="8"/>
     </row>
-    <row r="82" ht="16.5" spans="4:4">
+    <row r="82" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D82" s="8"/>
     </row>
-    <row r="83" ht="16.5" spans="4:4">
+    <row r="83" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D83" s="8"/>
     </row>
-    <row r="84" ht="16.5" spans="4:4">
+    <row r="84" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="16.5" spans="4:4">
+    <row r="85" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D85" s="8"/>
     </row>
-    <row r="86" ht="16.5" spans="4:4">
+    <row r="86" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D86" s="8"/>
     </row>
-    <row r="87" ht="16.5" spans="4:4">
+    <row r="87" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D87" s="8"/>
     </row>
-    <row r="88" ht="16.5" spans="4:4">
+    <row r="88" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D88" s="8"/>
     </row>
-    <row r="89" ht="16.5" spans="4:4">
+    <row r="89" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D89" s="8"/>
     </row>
-    <row r="90" ht="16.5" spans="4:4">
+    <row r="90" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D90" s="8"/>
     </row>
-    <row r="91" ht="16.5" spans="4:4">
+    <row r="91" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D91" s="8"/>
     </row>
-    <row r="92" ht="16.5" spans="4:4">
+    <row r="92" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D92" s="8"/>
     </row>
-    <row r="93" ht="16.5" spans="4:4">
+    <row r="93" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D93" s="8"/>
     </row>
-    <row r="94" ht="16.5" spans="4:4">
+    <row r="94" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D94" s="8"/>
     </row>
-    <row r="95" ht="16.5" spans="4:4">
+    <row r="95" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D95" s="8"/>
     </row>
-    <row r="96" ht="16.5" spans="4:4">
+    <row r="96" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D96" s="8"/>
     </row>
-    <row r="97" ht="16.5" spans="4:4">
+    <row r="97" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D97" s="8"/>
     </row>
-    <row r="98" ht="16.5" spans="4:4">
+    <row r="98" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D98" s="8"/>
     </row>
-    <row r="99" ht="16.5" spans="4:4">
+    <row r="99" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D99" s="8"/>
     </row>
-    <row r="100" ht="16.5" spans="4:4">
+    <row r="100" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D100" s="8"/>
     </row>
-    <row r="101" ht="16.5" spans="4:4">
+    <row r="101" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D101" s="8"/>
     </row>
-    <row r="102" ht="16.5" spans="4:4">
+    <row r="102" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D102" s="8"/>
     </row>
-    <row r="103" ht="16.5" spans="4:4">
+    <row r="103" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D103" s="8"/>
     </row>
-    <row r="104" ht="16.5" spans="4:4">
+    <row r="104" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D104" s="8"/>
     </row>
-    <row r="105" ht="16.5" spans="4:4">
+    <row r="105" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D105" s="8"/>
     </row>
-    <row r="106" ht="16.5" spans="4:4">
+    <row r="106" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D106" s="8"/>
     </row>
-    <row r="107" ht="16.5" spans="4:4">
+    <row r="107" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D107" s="8"/>
     </row>
-    <row r="108" ht="16.5" spans="4:4">
+    <row r="108" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D108" s="8"/>
     </row>
-    <row r="109" ht="16.5" spans="4:4">
+    <row r="109" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D109" s="8"/>
     </row>
-    <row r="110" ht="16.5" spans="4:4">
+    <row r="110" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D110" s="8"/>
     </row>
-    <row r="111" ht="16.5" spans="4:4">
+    <row r="111" spans="4:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D111" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -5639,7 +9365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -5647,7 +9373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -5655,7 +9381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -5663,7 +9389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -5671,7 +9397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -5679,7 +9405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -5687,7 +9413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -5695,7 +9421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -5703,7 +9429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5711,81 +9437,81 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1964,7 @@
         <v>32503651200</v>
       </c>
       <c r="K26" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>32503651200</v>
       </c>
       <c r="K27" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
         <v>32503651200</v>
       </c>
       <c r="K28" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>32503651200</v>
       </c>
       <c r="K29" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2104,7 +2104,7 @@
         <v>32503651200</v>
       </c>
       <c r="K30" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>32503651200</v>
       </c>
       <c r="K31" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>32503651200</v>
       </c>
       <c r="K32" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>32503651200</v>
       </c>
       <c r="K33" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2244,7 +2244,7 @@
         <v>32503651200</v>
       </c>
       <c r="K34" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2279,7 +2279,7 @@
         <v>32503651200</v>
       </c>
       <c r="K35" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>32503651200</v>
       </c>
       <c r="K36" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>32503651200</v>
       </c>
       <c r="K37" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
         <v>32503651200</v>
       </c>
       <c r="K38" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2419,7 +2419,7 @@
         <v>32503651200</v>
       </c>
       <c r="K39" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>32503651200</v>
       </c>
       <c r="K40" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
         <v>32503651200</v>
       </c>
       <c r="K41" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>32503651200</v>
       </c>
       <c r="K42" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2559,7 +2559,7 @@
         <v>32503651200</v>
       </c>
       <c r="K43" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
         <v>32503651200</v>
       </c>
       <c r="K44" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>32503651200</v>
       </c>
       <c r="K45" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>32503651200</v>
       </c>
       <c r="K46" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2699,7 +2699,7 @@
         <v>32503651200</v>
       </c>
       <c r="K47" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2734,7 +2734,7 @@
         <v>32503651200</v>
       </c>
       <c r="K48" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
         <v>32503651200</v>
       </c>
       <c r="K49" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2804,7 +2804,7 @@
         <v>32503651200</v>
       </c>
       <c r="K50" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2839,7 +2839,7 @@
         <v>32503651200</v>
       </c>
       <c r="K51" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2874,7 +2874,7 @@
         <v>32503651200</v>
       </c>
       <c r="K52" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>32503651200</v>
       </c>
       <c r="K53" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2944,7 +2944,7 @@
         <v>32503651200</v>
       </c>
       <c r="K54" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
         <v>32503651200</v>
       </c>
       <c r="K55" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3014,7 +3014,7 @@
         <v>32503651200</v>
       </c>
       <c r="K56" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3049,7 +3049,7 @@
         <v>32503651200</v>
       </c>
       <c r="K57" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3084,7 +3084,7 @@
         <v>32503651200</v>
       </c>
       <c r="K58" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>32503651200</v>
       </c>
       <c r="K59" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>32503651200</v>
       </c>
       <c r="K60" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -3189,7 +3189,7 @@
         <v>32503651200</v>
       </c>
       <c r="K61" s="14">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -3675,7 +3675,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5928,7 +5928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
     </sheetView>

--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -343,6 +343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J28" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView topLeftCell="J28" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3683,9 +3685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26:D61"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4325,7 +4327,7 @@
         <v>20300</v>
       </c>
       <c r="F26" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6"/>
       <c r="I26" s="12"/>
@@ -4347,7 +4349,7 @@
         <v>20301</v>
       </c>
       <c r="F27" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -4368,7 +4370,7 @@
         <v>20302</v>
       </c>
       <c r="F28" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -4389,7 +4391,7 @@
         <v>20303</v>
       </c>
       <c r="F29" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
@@ -4411,7 +4413,7 @@
         <v>20304</v>
       </c>
       <c r="F30" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -4432,7 +4434,7 @@
         <v>20305</v>
       </c>
       <c r="F31" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -4452,7 +4454,7 @@
         <v>20306</v>
       </c>
       <c r="F32" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4472,7 +4474,7 @@
         <v>20307</v>
       </c>
       <c r="F33" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4492,7 +4494,7 @@
         <v>20308</v>
       </c>
       <c r="F34" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4514,7 @@
         <v>20400</v>
       </c>
       <c r="F35" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,7 +4534,7 @@
         <v>20401</v>
       </c>
       <c r="F36" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,7 +4554,7 @@
         <v>20402</v>
       </c>
       <c r="F37" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4572,7 +4574,7 @@
         <v>20403</v>
       </c>
       <c r="F38" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4592,7 +4594,7 @@
         <v>20404</v>
       </c>
       <c r="F39" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4612,7 +4614,7 @@
         <v>20405</v>
       </c>
       <c r="F40" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4632,7 +4634,7 @@
         <v>20406</v>
       </c>
       <c r="F41" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4652,7 +4654,7 @@
         <v>20407</v>
       </c>
       <c r="F42" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4672,7 +4674,7 @@
         <v>20408</v>
       </c>
       <c r="F43" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4692,7 +4694,7 @@
         <v>20500</v>
       </c>
       <c r="F44" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4712,7 +4714,7 @@
         <v>20501</v>
       </c>
       <c r="F45" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4732,7 +4734,7 @@
         <v>20502</v>
       </c>
       <c r="F46" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4752,7 +4754,7 @@
         <v>20503</v>
       </c>
       <c r="F47" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4774,7 @@
         <v>20504</v>
       </c>
       <c r="F48" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4792,7 +4794,7 @@
         <v>20505</v>
       </c>
       <c r="F49" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4812,7 +4814,7 @@
         <v>20506</v>
       </c>
       <c r="F50" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,7 +4834,7 @@
         <v>20507</v>
       </c>
       <c r="F51" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4852,7 +4854,7 @@
         <v>20508</v>
       </c>
       <c r="F52" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,7 +4874,7 @@
         <v>20600</v>
       </c>
       <c r="F53" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,7 +4894,7 @@
         <v>20601</v>
       </c>
       <c r="F54" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,7 +4914,7 @@
         <v>20602</v>
       </c>
       <c r="F55" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4932,7 +4934,7 @@
         <v>20603</v>
       </c>
       <c r="F56" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4952,7 +4954,7 @@
         <v>20604</v>
       </c>
       <c r="F57" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4972,7 +4974,7 @@
         <v>20605</v>
       </c>
       <c r="F58" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4992,7 +4994,7 @@
         <v>20606</v>
       </c>
       <c r="F59" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5012,7 +5014,7 @@
         <v>20607</v>
       </c>
       <c r="F60" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5032,7 +5034,7 @@
         <v>20608</v>
       </c>
       <c r="F61" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5928,9 +5930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7255,7 +7257,7 @@
         <v>95</v>
       </c>
       <c r="D75" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16">
         <v>2</v>
@@ -7309,7 +7311,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E78" s="16">
         <v>2</v>
@@ -7363,7 +7365,7 @@
         <v>95</v>
       </c>
       <c r="D81" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E81" s="16">
         <v>2</v>
@@ -7417,7 +7419,7 @@
         <v>95</v>
       </c>
       <c r="D84" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E84" s="16">
         <v>2</v>
@@ -7471,7 +7473,7 @@
         <v>95</v>
       </c>
       <c r="D87" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E87" s="16">
         <v>2</v>
@@ -7525,7 +7527,7 @@
         <v>95</v>
       </c>
       <c r="D90" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E90" s="16">
         <v>2</v>
@@ -7579,7 +7581,7 @@
         <v>95</v>
       </c>
       <c r="D93" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E93" s="16">
         <v>2</v>
@@ -7633,7 +7635,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E96" s="16">
         <v>2</v>
@@ -7687,7 +7689,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E99" s="16">
         <v>2</v>
@@ -7741,7 +7743,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16">
         <v>2</v>
@@ -7795,7 +7797,7 @@
         <v>95</v>
       </c>
       <c r="D105" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E105" s="16">
         <v>2</v>
@@ -7849,7 +7851,7 @@
         <v>95</v>
       </c>
       <c r="D108" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E108" s="16">
         <v>2</v>
@@ -7903,7 +7905,7 @@
         <v>95</v>
       </c>
       <c r="D111" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E111" s="16">
         <v>2</v>
@@ -7955,7 +7957,7 @@
         <v>95</v>
       </c>
       <c r="D114" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E114" s="16">
         <v>2</v>
@@ -8006,7 +8008,7 @@
         <v>95</v>
       </c>
       <c r="D117" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E117" s="16">
         <v>2</v>
@@ -8057,7 +8059,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E120" s="16">
         <v>2</v>
@@ -8108,7 +8110,7 @@
         <v>95</v>
       </c>
       <c r="D123" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E123" s="16">
         <v>2</v>
@@ -8159,7 +8161,7 @@
         <v>95</v>
       </c>
       <c r="D126" s="16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E126" s="16">
         <v>2</v>
@@ -8210,7 +8212,7 @@
         <v>95</v>
       </c>
       <c r="D129" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E129" s="16">
         <v>2</v>
@@ -8261,7 +8263,7 @@
         <v>95</v>
       </c>
       <c r="D132" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E132" s="16">
         <v>2</v>
@@ -8312,7 +8314,7 @@
         <v>95</v>
       </c>
       <c r="D135" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E135" s="16">
         <v>2</v>
@@ -8363,7 +8365,7 @@
         <v>95</v>
       </c>
       <c r="D138" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E138" s="16">
         <v>2</v>
@@ -8414,7 +8416,7 @@
         <v>95</v>
       </c>
       <c r="D141" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E141" s="16">
         <v>2</v>
@@ -8465,7 +8467,7 @@
         <v>95</v>
       </c>
       <c r="D144" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E144" s="16">
         <v>2</v>
@@ -8516,7 +8518,7 @@
         <v>95</v>
       </c>
       <c r="D147" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E147" s="16">
         <v>2</v>
@@ -8567,7 +8569,7 @@
         <v>95</v>
       </c>
       <c r="D150" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E150" s="16">
         <v>2</v>
@@ -8618,7 +8620,7 @@
         <v>95</v>
       </c>
       <c r="D153" s="16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E153" s="16">
         <v>2</v>
@@ -8669,7 +8671,7 @@
         <v>95</v>
       </c>
       <c r="D156" s="16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E156" s="16">
         <v>2</v>
@@ -8720,7 +8722,7 @@
         <v>95</v>
       </c>
       <c r="D159" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E159" s="16">
         <v>2</v>
@@ -8771,7 +8773,7 @@
         <v>95</v>
       </c>
       <c r="D162" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E162" s="16">
         <v>2</v>
@@ -8822,7 +8824,7 @@
         <v>95</v>
       </c>
       <c r="D165" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E165" s="16">
         <v>2</v>
@@ -8873,7 +8875,7 @@
         <v>95</v>
       </c>
       <c r="D168" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E168" s="16">
         <v>2</v>
@@ -8924,7 +8926,7 @@
         <v>95</v>
       </c>
       <c r="D171" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E171" s="16">
         <v>2</v>
@@ -8975,7 +8977,7 @@
         <v>95</v>
       </c>
       <c r="D174" s="16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E174" s="16">
         <v>2</v>
@@ -9026,7 +9028,7 @@
         <v>95</v>
       </c>
       <c r="D177" s="16">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E177" s="16">
         <v>2</v>
@@ -9077,7 +9079,7 @@
         <v>95</v>
       </c>
       <c r="D180" s="16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E180" s="16">
         <v>2</v>

--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -967,18 +967,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView topLeftCell="J28" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="6" customWidth="1"/>
-    <col min="6" max="9" width="27.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="33" style="6" customWidth="1"/>
     <col min="11" max="11" width="27.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="61" style="6" customWidth="1"/>
@@ -3686,7 +3689,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53:F61"/>
     </sheetView>
   </sheetViews>
@@ -5048,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5930,9 +5933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9112,9 +9115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3688,9 +3688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53:F61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4330,7 +4330,7 @@
         <v>20300</v>
       </c>
       <c r="F26" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="6"/>
       <c r="I26" s="12"/>
@@ -4352,7 +4352,7 @@
         <v>20301</v>
       </c>
       <c r="F27" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -4373,7 +4373,7 @@
         <v>20302</v>
       </c>
       <c r="F28" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -4394,7 +4394,7 @@
         <v>20303</v>
       </c>
       <c r="F29" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="6"/>
       <c r="I29" s="1"/>
@@ -4416,7 +4416,7 @@
         <v>20304</v>
       </c>
       <c r="F30" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -4517,7 +4517,7 @@
         <v>20400</v>
       </c>
       <c r="F35" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>20401</v>
       </c>
       <c r="F36" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4557,7 +4557,7 @@
         <v>20402</v>
       </c>
       <c r="F37" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>20403</v>
       </c>
       <c r="F38" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4597,7 +4597,7 @@
         <v>20404</v>
       </c>
       <c r="F39" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>20500</v>
       </c>
       <c r="F44" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>20501</v>
       </c>
       <c r="F45" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,7 +4737,7 @@
         <v>20502</v>
       </c>
       <c r="F46" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,7 +4757,7 @@
         <v>20503</v>
       </c>
       <c r="F47" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>20504</v>
       </c>
       <c r="F48" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4877,7 +4877,7 @@
         <v>20600</v>
       </c>
       <c r="F53" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>20601</v>
       </c>
       <c r="F54" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
         <v>20602</v>
       </c>
       <c r="F55" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>20603</v>
       </c>
       <c r="F56" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4957,7 +4957,7 @@
         <v>20604</v>
       </c>
       <c r="F57" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5933,9 +5933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7260,7 +7260,7 @@
         <v>95</v>
       </c>
       <c r="D75" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E75" s="16">
         <v>2</v>
@@ -7314,7 +7314,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E78" s="16">
         <v>2</v>
@@ -7368,7 +7368,7 @@
         <v>95</v>
       </c>
       <c r="D81" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16">
         <v>2</v>
@@ -7422,7 +7422,7 @@
         <v>95</v>
       </c>
       <c r="D84" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16">
         <v>2</v>
@@ -7476,7 +7476,7 @@
         <v>95</v>
       </c>
       <c r="D87" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16">
         <v>2</v>
@@ -7530,7 +7530,7 @@
         <v>95</v>
       </c>
       <c r="D90" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E90" s="16">
         <v>2</v>
@@ -7584,7 +7584,7 @@
         <v>95</v>
       </c>
       <c r="D93" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E93" s="16">
         <v>2</v>
@@ -7638,7 +7638,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E96" s="16">
         <v>2</v>
@@ -7692,7 +7692,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E99" s="16">
         <v>2</v>
@@ -7746,7 +7746,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E102" s="16">
         <v>2</v>
@@ -7800,7 +7800,7 @@
         <v>95</v>
       </c>
       <c r="D105" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E105" s="16">
         <v>2</v>
@@ -7854,7 +7854,7 @@
         <v>95</v>
       </c>
       <c r="D108" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16">
         <v>2</v>
@@ -7908,7 +7908,7 @@
         <v>95</v>
       </c>
       <c r="D111" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E111" s="16">
         <v>2</v>
@@ -7960,7 +7960,7 @@
         <v>95</v>
       </c>
       <c r="D114" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16">
         <v>2</v>
@@ -8011,7 +8011,7 @@
         <v>95</v>
       </c>
       <c r="D117" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E117" s="16">
         <v>2</v>
@@ -8062,7 +8062,7 @@
         <v>95</v>
       </c>
       <c r="D120" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E120" s="16">
         <v>2</v>
@@ -8113,7 +8113,7 @@
         <v>95</v>
       </c>
       <c r="D123" s="16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E123" s="16">
         <v>2</v>
@@ -8164,7 +8164,7 @@
         <v>95</v>
       </c>
       <c r="D126" s="16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E126" s="16">
         <v>2</v>
@@ -8215,7 +8215,7 @@
         <v>95</v>
       </c>
       <c r="D129" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E129" s="16">
         <v>2</v>
@@ -8266,7 +8266,7 @@
         <v>95</v>
       </c>
       <c r="D132" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E132" s="16">
         <v>2</v>
@@ -8317,7 +8317,7 @@
         <v>95</v>
       </c>
       <c r="D135" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16">
         <v>2</v>
@@ -8368,7 +8368,7 @@
         <v>95</v>
       </c>
       <c r="D138" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E138" s="16">
         <v>2</v>
@@ -8419,7 +8419,7 @@
         <v>95</v>
       </c>
       <c r="D141" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E141" s="16">
         <v>2</v>
@@ -8470,7 +8470,7 @@
         <v>95</v>
       </c>
       <c r="D144" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E144" s="16">
         <v>2</v>
@@ -8521,7 +8521,7 @@
         <v>95</v>
       </c>
       <c r="D147" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16">
         <v>2</v>
@@ -8572,7 +8572,7 @@
         <v>95</v>
       </c>
       <c r="D150" s="16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E150" s="16">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>95</v>
       </c>
       <c r="D153" s="16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E153" s="16">
         <v>2</v>
@@ -8674,7 +8674,7 @@
         <v>95</v>
       </c>
       <c r="D156" s="16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E156" s="16">
         <v>2</v>
@@ -8725,7 +8725,7 @@
         <v>95</v>
       </c>
       <c r="D159" s="16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E159" s="16">
         <v>2</v>
@@ -8776,7 +8776,7 @@
         <v>95</v>
       </c>
       <c r="D162" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16">
         <v>2</v>
@@ -8827,7 +8827,7 @@
         <v>95</v>
       </c>
       <c r="D165" s="16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E165" s="16">
         <v>2</v>
@@ -8878,7 +8878,7 @@
         <v>95</v>
       </c>
       <c r="D168" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E168" s="16">
         <v>2</v>
@@ -8929,7 +8929,7 @@
         <v>95</v>
       </c>
       <c r="D171" s="16">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E171" s="16">
         <v>2</v>
@@ -8980,7 +8980,7 @@
         <v>95</v>
       </c>
       <c r="D174" s="16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E174" s="16">
         <v>2</v>
@@ -9031,7 +9031,7 @@
         <v>95</v>
       </c>
       <c r="D177" s="16">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E177" s="16">
         <v>2</v>
@@ -9082,7 +9082,7 @@
         <v>95</v>
       </c>
       <c r="D180" s="16">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E180" s="16">
         <v>2</v>

--- a/config_Release/task_buyu_challenge_server.xlsx
+++ b/config_Release/task_buyu_challenge_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="99">
   <si>
     <t>id|任务id</t>
   </si>
@@ -488,6 +488,44 @@
   <si>
     <t>挑战任务</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -633,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +727,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3690,7 +3731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5934,8 +5975,8 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J166" sqref="J166"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8163,8 +8204,8 @@
       <c r="C126" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D126" s="16">
-        <v>20</v>
+      <c r="D126" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="E126" s="16">
         <v>2</v>
